--- a/metabolabpytools/jupyter/isotopomerAnalysis.xlsx
+++ b/metabolabpytools/jupyter/isotopomerAnalysis.xlsx
@@ -8,7 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="L-Alanine" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="L-LacticAcid" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="L-AsparticAcid" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="L-GlutamicAcid" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="L-LacticAcid" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="PyruvicAcid(Enol)" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -487,7 +490,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>80.50</t>
+          <t>80.61</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,12 +500,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.79</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -512,7 +515,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[80.5   2.78 16.72  0.  ]</t>
+          <t>[80.61  2.76 16.63  0.  ]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -534,7 +537,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -561,7 +564,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16.72</t>
+          <t>16.63</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -571,12 +574,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>92.32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>94.06</t>
         </is>
       </c>
     </row>
@@ -588,7 +591,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -610,7 +613,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>17.73</t>
+          <t>17.74</t>
         </is>
       </c>
     </row>
@@ -627,7 +630,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>82.27</t>
+          <t>82.26</t>
         </is>
       </c>
     </row>
@@ -801,7 +804,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>79.97</t>
+          <t>80.07</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -811,12 +814,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -826,7 +829,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[79.97  2.83 17.2   0.  ]</t>
+          <t>[80.07  2.81 17.12  0.  ]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -848,7 +851,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -875,7 +878,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17.20</t>
+          <t>17.12</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -885,12 +888,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>94.83</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>94.23</t>
         </is>
       </c>
     </row>
@@ -902,7 +905,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -924,7 +927,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>17.48</t>
+          <t>17.49</t>
         </is>
       </c>
     </row>
@@ -941,7 +944,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>82.52</t>
+          <t>82.51</t>
         </is>
       </c>
     </row>
@@ -951,6 +954,250 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Fitted Isotopomers</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Fitted Isotopomer %</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Multiplets</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Exp. %</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Sim. %</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Exp. GC-MS %</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sim. GC-MS %</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Exp. NMR1D %</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Sim. NMR1D %</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[85.08  5.77  7.23  1.55  0.37]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[85.08  5.77  7.23  1.55  0.37]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[85.08  5.77  7.23  1.55  0.37]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Fitted Isotopomers</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Fitted Isotopomer %</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Multiplets</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Exp. %</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Sim. %</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Exp. GC-MS %</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sim. GC-MS %</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Exp. NMR1D %</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Sim. NMR1D %</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[7.825e+01 7.260e+00 1.184e+01 1.890e+00 7.400e-01 2.000e-02]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[7.825e+01 7.260e+00 1.184e+01 1.890e+00 7.400e-01 2.000e-02]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[7.825e+01 7.260e+00 1.184e+01 1.890e+00 7.400e-01 2.000e-02]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1029,7 +1276,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>73.82</t>
+          <t>73.95</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1039,12 +1286,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1054,7 +1301,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[73.82  3.17 23.01  0.  ]</t>
+          <t>[73.95  3.16 22.9   0.  ]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1076,7 +1323,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1086,7 +1333,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1103,7 +1350,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>23.01</t>
+          <t>22.90</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1113,12 +1360,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>95.65</t>
+          <t>95.63</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1377,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1152,7 +1399,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>14.57</t>
+          <t>14.58</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1416,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>85.43</t>
+          <t>85.42</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1433,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>73.72</t>
+          <t>73.88</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1196,12 +1443,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1211,7 +1458,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[73.72  3.49 22.79  0.  ]</t>
+          <t>[73.88  3.45 22.67  0.  ]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1233,7 +1480,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1243,7 +1490,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1260,7 +1507,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>22.79</t>
+          <t>22.67</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1270,12 +1517,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>93.36</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>95.63</t>
+          <t>95.60</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1534,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1304,12 +1551,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>15.51</t>
+          <t>15.46</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>15.67</t>
+          <t>15.63</t>
         </is>
       </c>
     </row>
@@ -1321,12 +1568,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>84.49</t>
+          <t>84.54</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>84.33</t>
+          <t>84.37</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1590,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>73.81</t>
+          <t>73.67</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1353,12 +1600,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1368,7 +1615,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[73.81  3.15 23.05  0.  ]</t>
+          <t>[73.67  3.16 23.17  0.  ]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1390,7 +1637,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1417,7 +1664,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>23.05</t>
+          <t>23.17</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1427,12 +1674,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>95.16</t>
+          <t>95.93</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>95.66</t>
+          <t>95.68</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1713,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>14.46</t>
+          <t>14.45</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1730,129 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>85.54</t>
+          <t>85.55</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Fitted Isotopomers</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Fitted Isotopomer %</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Multiplets</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Exp. %</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Sim. %</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Exp. GC-MS %</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sim. GC-MS %</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Exp. NMR1D %</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Sim. NMR1D %</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[72.74  3.58 23.43  0.25]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[72.74  3.58 23.43  0.25]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[72.74  3.58 23.43  0.25]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
